--- a/JBUH/QC/데이터확인항목.xlsx
+++ b/JBUH/QC/데이터확인항목.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\JBUH\QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F961A8F3-37C0-44D9-87DC-FC13F102516D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F86CCC-9F7E-4EC8-A33A-166A67D5F63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{1AAD30D6-851E-472A-8E17-2F331E83179C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{1AAD30D6-851E-472A-8E17-2F331E83179C}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터 확인 목록" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3519" uniqueCount="1445">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4768,6 +4768,70 @@
   </si>
   <si>
     <t>MMOHDIAG_진단정보</t>
+  </si>
+  <si>
+    <t>예상 코드 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10, E11, E12, E13, E14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B18, K73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I21, I22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I10, I15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C77, C78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C91, C92, C93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C81, C82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M06, M05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J96.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K27.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5697,10 +5761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0856910E-6F83-4485-80F2-7F22AEDE47D0}">
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5711,13 +5775,14 @@
     <col min="4" max="4" width="62.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.625" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33">
+    <row r="1" spans="1:12" ht="33">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5739,20 +5804,23 @@
       <c r="G1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="L1" s="57" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -5776,8 +5844,9 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -5801,8 +5870,9 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -5826,8 +5896,9 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -5845,8 +5916,9 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -5864,8 +5936,9 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -5883,8 +5956,9 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" ht="33">
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="33">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -5904,12 +5978,13 @@
       <c r="G8" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -5929,12 +6004,13 @@
       <c r="G9" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -5958,8 +6034,9 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -5979,8 +6056,9 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -6004,8 +6082,9 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -6029,8 +6108,9 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -6052,8 +6132,9 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -6077,8 +6158,9 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -6102,8 +6184,9 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -6127,8 +6210,9 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -6152,8 +6236,9 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -6177,8 +6262,9 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -6198,8 +6284,9 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -6219,8 +6306,9 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -6240,8 +6328,9 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -6265,8 +6354,9 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -6286,8 +6376,9 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" ht="33">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -6307,12 +6398,15 @@
       <c r="G25" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="56" t="s">
+        <v>1430</v>
+      </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -6332,12 +6426,15 @@
       <c r="G26" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="10" t="s">
+        <v>1087</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="1:11" ht="33">
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" ht="33">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -6357,12 +6454,15 @@
       <c r="G27" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="10" t="s">
+        <v>980</v>
+      </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -6382,12 +6482,15 @@
       <c r="G28" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="10" t="s">
+        <v>981</v>
+      </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -6407,12 +6510,15 @@
       <c r="G29" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="10" t="s">
+        <v>1013</v>
+      </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -6432,12 +6538,15 @@
       <c r="G30" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="10"/>
+      <c r="H30" s="10" t="s">
+        <v>983</v>
+      </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="1:11" ht="33">
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" ht="33">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -6457,12 +6566,15 @@
       <c r="G31" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="10" t="s">
+        <v>984</v>
+      </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -6482,12 +6594,15 @@
       <c r="G32" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="10" t="s">
+        <v>1015</v>
+      </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-    </row>
-    <row r="33" spans="1:11" ht="33">
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" ht="33">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -6507,12 +6622,15 @@
       <c r="G33" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H33" s="10"/>
+      <c r="H33" s="10" t="s">
+        <v>1413</v>
+      </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-    </row>
-    <row r="34" spans="1:11" ht="33">
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12" ht="33">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -6532,12 +6650,15 @@
       <c r="G34" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H34" s="10"/>
+      <c r="H34" s="10" t="s">
+        <v>1414</v>
+      </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -6557,12 +6678,15 @@
       <c r="G35" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="10"/>
+      <c r="H35" s="10" t="s">
+        <v>1035</v>
+      </c>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -6582,12 +6706,15 @@
       <c r="G36" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H36" s="10"/>
+      <c r="H36" s="10" t="s">
+        <v>1431</v>
+      </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="1:11" ht="33">
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12" ht="33">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -6607,12 +6734,15 @@
       <c r="G37" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H37" s="10"/>
+      <c r="H37" s="10" t="s">
+        <v>988</v>
+      </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
-    </row>
-    <row r="38" spans="1:11" ht="33">
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12" ht="33">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -6632,12 +6762,15 @@
       <c r="G38" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H38" s="10"/>
+      <c r="H38" s="10" t="s">
+        <v>989</v>
+      </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -6657,12 +6790,15 @@
       <c r="G39" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H39" s="10"/>
+      <c r="H39" s="10" t="s">
+        <v>1432</v>
+      </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="1:11" ht="33">
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="1:12" ht="33">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -6682,12 +6818,15 @@
       <c r="G40" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H40" s="10"/>
+      <c r="H40" s="10" t="s">
+        <v>991</v>
+      </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="1:11" ht="33">
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" spans="1:12" ht="33">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -6707,12 +6846,15 @@
       <c r="G41" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H41" s="10"/>
+      <c r="H41" s="10" t="s">
+        <v>992</v>
+      </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" s="10"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -6732,12 +6874,15 @@
       <c r="G42" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H42" s="10"/>
+      <c r="H42" s="10" t="s">
+        <v>1433</v>
+      </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -6757,12 +6902,15 @@
       <c r="G43" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H43" s="10"/>
+      <c r="H43" s="10" t="s">
+        <v>988</v>
+      </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="1:11" ht="33">
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="1:12" ht="33">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -6778,12 +6926,15 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="H44" s="10" t="s">
+        <v>1434</v>
+      </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="1:11" ht="33">
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="1:12" ht="33">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -6799,12 +6950,15 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="H45" s="10" t="s">
+        <v>1434</v>
+      </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -6824,12 +6978,15 @@
       <c r="G46" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H46" s="10"/>
+      <c r="H46" s="10" t="s">
+        <v>1435</v>
+      </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -6849,12 +7006,15 @@
       <c r="G47" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H47" s="10"/>
+      <c r="H47" s="10" t="s">
+        <v>1436</v>
+      </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -6870,12 +7030,15 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+      <c r="H48" s="10" t="s">
+        <v>1437</v>
+      </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="1:11" ht="33">
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49" spans="1:12" ht="33">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -6895,12 +7058,15 @@
       <c r="G49" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H49" s="10"/>
+      <c r="H49" s="10" t="s">
+        <v>1438</v>
+      </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="1:11" ht="33">
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="1:12" ht="33">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -6920,12 +7086,15 @@
       <c r="G50" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H50" s="10"/>
+      <c r="H50" s="10" t="s">
+        <v>1439</v>
+      </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50" s="10"/>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -6945,12 +7114,15 @@
       <c r="G51" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H51" s="10"/>
+      <c r="H51" s="10" t="s">
+        <v>998</v>
+      </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" s="10"/>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -6970,12 +7142,15 @@
       <c r="G52" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H52" s="10"/>
+      <c r="H52" s="10" t="s">
+        <v>999</v>
+      </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52" s="10"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -6995,12 +7170,15 @@
       <c r="G53" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H53" s="10"/>
+      <c r="H53" s="10" t="s">
+        <v>1000</v>
+      </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
-    </row>
-    <row r="54" spans="1:11" ht="33">
+      <c r="L53" s="10"/>
+    </row>
+    <row r="54" spans="1:12" ht="33">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -7020,12 +7198,15 @@
       <c r="G54" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H54" s="10"/>
+      <c r="H54" s="10" t="s">
+        <v>1001</v>
+      </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -7045,8 +7226,9 @@
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55" s="10"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -7066,12 +7248,15 @@
       <c r="G56" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H56" s="10"/>
+      <c r="H56" s="10" t="s">
+        <v>1002</v>
+      </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56" s="10"/>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -7091,12 +7276,15 @@
       <c r="G57" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H57" s="10"/>
+      <c r="H57" s="10" t="s">
+        <v>1440</v>
+      </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57" s="10"/>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -7116,12 +7304,15 @@
       <c r="G58" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H58" s="10"/>
+      <c r="H58" s="10" t="s">
+        <v>1441</v>
+      </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
-    </row>
-    <row r="59" spans="1:11" ht="33">
+      <c r="L58" s="10"/>
+    </row>
+    <row r="59" spans="1:12" ht="33">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -7141,12 +7332,15 @@
       <c r="G59" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H59" s="10"/>
+      <c r="H59" s="10" t="s">
+        <v>1442</v>
+      </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" s="10"/>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -7162,12 +7356,15 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
+      <c r="H60" s="10" t="s">
+        <v>1444</v>
+      </c>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" s="10"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -7187,8 +7384,9 @@
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61" s="10"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -7208,8 +7406,9 @@
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62" s="10"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -7229,8 +7428,9 @@
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63" s="10"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -7250,8 +7450,9 @@
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64" s="10"/>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -7271,12 +7472,15 @@
       <c r="G65" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H65" s="10"/>
+      <c r="H65" s="10" t="s">
+        <v>1443</v>
+      </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65" s="10"/>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="10">
         <v>65</v>
       </c>
@@ -7296,12 +7500,15 @@
       <c r="G66" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H66" s="10"/>
+      <c r="H66" s="10" t="s">
+        <v>1007</v>
+      </c>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66" s="10"/>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -7321,12 +7528,15 @@
       <c r="G67" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H67" s="10"/>
+      <c r="H67" s="10" t="s">
+        <v>1008</v>
+      </c>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67" s="10"/>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="10">
         <v>67</v>
       </c>
@@ -7346,8 +7556,9 @@
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
-    </row>
-    <row r="69" spans="1:11" ht="49.5">
+      <c r="L68" s="10"/>
+    </row>
+    <row r="69" spans="1:12" ht="49.5">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -7367,8 +7578,9 @@
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69" s="10"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -7390,8 +7602,9 @@
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70" s="10"/>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -7411,8 +7624,9 @@
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71" s="10"/>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -7436,8 +7650,9 @@
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72" s="10"/>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -7461,8 +7676,9 @@
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73" s="10"/>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="10">
         <v>73</v>
       </c>
@@ -7486,8 +7702,9 @@
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74" s="10"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -7511,8 +7728,9 @@
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="10"/>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75" s="10"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -7536,8 +7754,9 @@
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76" s="10"/>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -7561,8 +7780,9 @@
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77" s="10"/>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="10">
         <v>77</v>
       </c>
@@ -7586,8 +7806,9 @@
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78" s="10"/>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -7611,8 +7832,9 @@
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79" s="10"/>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -7636,8 +7858,9 @@
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80" s="10"/>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -7661,8 +7884,9 @@
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81" s="10"/>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="10">
         <v>81</v>
       </c>
@@ -7686,8 +7910,9 @@
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82" s="10"/>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="10">
         <v>82</v>
       </c>
@@ -7711,8 +7936,9 @@
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83" s="10"/>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="10">
         <v>83</v>
       </c>
@@ -7736,8 +7962,9 @@
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84" s="10"/>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="10">
         <v>84</v>
       </c>
@@ -7761,8 +7988,9 @@
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85" s="10"/>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="10">
         <v>85</v>
       </c>
@@ -7786,8 +8014,9 @@
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86" s="10"/>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="10">
         <v>86</v>
       </c>
@@ -7811,8 +8040,9 @@
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87" s="10"/>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="10">
         <v>87</v>
       </c>
@@ -7836,8 +8066,9 @@
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88" s="10"/>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="10">
         <v>88</v>
       </c>
@@ -7861,8 +8092,9 @@
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89" s="10"/>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="10">
         <v>89</v>
       </c>
@@ -7886,8 +8118,9 @@
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90" s="10"/>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -7911,8 +8144,9 @@
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91" s="10"/>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="10">
         <v>91</v>
       </c>
@@ -7936,8 +8170,9 @@
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92" s="10"/>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -7961,8 +8196,9 @@
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93" s="10"/>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="10">
         <v>93</v>
       </c>
@@ -7986,8 +8222,9 @@
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94" s="10"/>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -8011,8 +8248,9 @@
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95" s="10"/>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="10">
         <v>95</v>
       </c>
@@ -8036,8 +8274,9 @@
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96" s="10"/>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -8061,8 +8300,9 @@
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97" s="10"/>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="10">
         <v>97</v>
       </c>
@@ -8086,8 +8326,9 @@
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98" s="10"/>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -8111,8 +8352,9 @@
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99" s="10"/>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -8136,8 +8378,9 @@
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100" s="10"/>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -8159,8 +8402,9 @@
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101" s="10"/>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -8180,8 +8424,9 @@
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102" s="10"/>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -8201,8 +8446,9 @@
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103" s="10"/>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="10">
         <v>103</v>
       </c>
@@ -8222,8 +8468,9 @@
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104" s="10"/>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -8243,8 +8490,9 @@
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105" s="10"/>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -8264,8 +8512,9 @@
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106" s="10"/>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -8285,8 +8534,9 @@
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107" s="10"/>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="10">
         <v>107</v>
       </c>
@@ -8308,8 +8558,9 @@
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108" s="10"/>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -8331,8 +8582,9 @@
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
-    </row>
-    <row r="110" spans="1:11" ht="33">
+      <c r="L109" s="10"/>
+    </row>
+    <row r="110" spans="1:12" ht="33">
       <c r="A110" s="10">
         <v>109</v>
       </c>
@@ -8352,6 +8604,7 @@
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12047,8 +12300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B583A5C-B553-4310-A971-ACFB5B404124}">
   <dimension ref="A1:AM60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="A26" activeCellId="4" sqref="A2 A8 A14 A20 A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/JBUH/QC/데이터확인항목.xlsx
+++ b/JBUH/QC/데이터확인항목.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\JBUH\QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F86CCC-9F7E-4EC8-A33A-166A67D5F63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40FC8FA-EA0A-4BDB-BFE5-F4D2045BD424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{1AAD30D6-851E-472A-8E17-2F331E83179C}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{1AAD30D6-851E-472A-8E17-2F331E83179C}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터 확인 목록" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3519" uniqueCount="1445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1456">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4831,6 +4831,57 @@
   </si>
   <si>
     <t>J18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래 S: 건진
+일일수술실 등 다른 값도 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRETNO까지 있어야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임상관찰기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입원, 왜래, 응급이 한 테이블에 저장되어 있고 차트번호, 항목, 값 형태로 저장되어 있다고 함. 제공해주신다고함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검체검사는 검체검사 마스터에 있고 영상검사는 처방코드마스터에 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">검사 분류 체계(ex. 혈액, 소변 등등..) 코드에 대한 명칭을 알려주신다고 함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 상위 대표코드만 있고 세부 코드에 대한 내용은 없음. EDI와 매핑 불가.
+- TCLSCD는 처방코드 TESTCD는 검사코드.
+- 이력이 존재하기 때문에 날짜 조건 필수! -&gt; 데이터 확인해보니 검사 마스터는 이력이 없고(fromdate, todate가 19000101, 29991231이런 형식) 수가 마스터는 이력이 있음. 따라서 일단 검사결과 테이블에 수가 마스터를 연결시키는게 좋아보임.
+- 수가 마스터는 보내주신 csv파일에 이력정보가 없으니 이력정보 포함하여 요청 필요!
+- 검체검사만 있다 영상 검사는 없음.
+- 중복되는 데이터가 발생했는데, visit만 잘 연결시켜주면 될듯. CRETNO컬럼 사용하기!(아마 검사처방에 있는 컬럼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLRHSPDO_진단검사결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약물만 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주성분코드, 성분 컬럼이 있음. 성분 컬럼은 성분 + 용량 형태이며 경북대병원만의 표현방식일 수 있음.
+ATC코드가 있긴 하나 다른 테이블에 존재.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5146,7 +5197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5336,11 +5387,24 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5763,8 +5827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0856910E-6F83-4485-80F2-7F22AEDE47D0}">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5773,6 +5837,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="24"/>
     <col min="6" max="6" width="31.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.125" customWidth="1"/>
@@ -5833,7 +5898,7 @@
       <c r="D2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="10" t="s">
         <v>123</v>
       </c>
@@ -5844,7 +5909,7 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="10">
@@ -5859,7 +5924,7 @@
       <c r="D3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
         <v>123</v>
       </c>
@@ -5870,7 +5935,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="10">
@@ -5885,7 +5950,7 @@
       <c r="D4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="10" t="s">
         <v>123</v>
       </c>
@@ -5896,7 +5961,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="10">
@@ -5909,14 +5974,14 @@
       <c r="D5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="10">
@@ -5929,14 +5994,14 @@
       <c r="D6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="L6" s="56"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="10">
@@ -5949,14 +6014,14 @@
       <c r="D7" s="56" t="s">
         <v>426</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="L7" s="56"/>
     </row>
     <row r="8" spans="1:12" ht="33">
       <c r="A8" s="10">
@@ -5971,7 +6036,9 @@
       <c r="D8" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9" t="s">
+        <v>1445</v>
+      </c>
       <c r="F8" s="56" t="s">
         <v>127</v>
       </c>
@@ -5982,7 +6049,9 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="56" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="10">
@@ -5997,7 +6066,7 @@
       <c r="D9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="56" t="s">
         <v>131</v>
       </c>
@@ -6008,7 +6077,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="L9" s="56"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="10">
@@ -6023,7 +6092,7 @@
       <c r="D10" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
         <v>130</v>
       </c>
@@ -6034,7 +6103,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="L10" s="56"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10">
@@ -6049,14 +6118,16 @@
       <c r="D11" s="56" t="s">
         <v>425</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="56" t="s">
+        <v>1447</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="10">
@@ -6071,7 +6142,7 @@
       <c r="D12" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="10" t="s">
         <v>133</v>
       </c>
@@ -6082,7 +6153,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="L12" s="56"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="10">
@@ -6097,7 +6168,7 @@
       <c r="D13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
         <v>133</v>
       </c>
@@ -6108,7 +6179,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="L13" s="56"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="10">
@@ -6123,7 +6194,7 @@
       <c r="D14" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
         <v>136</v>
@@ -6132,9 +6203,9 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" s="56"/>
+    </row>
+    <row r="15" spans="1:12" ht="66">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -6147,7 +6218,9 @@
       <c r="D15" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="9" t="s">
+        <v>1445</v>
+      </c>
       <c r="F15" s="10" t="s">
         <v>133</v>
       </c>
@@ -6155,10 +6228,14 @@
         <v>141</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>1448</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="L15" s="56" t="s">
+        <v>1449</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="10">
@@ -6173,7 +6250,7 @@
       <c r="D16" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="10" t="s">
         <v>133</v>
       </c>
@@ -6184,7 +6261,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="L16" s="56"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="10">
@@ -6199,7 +6276,7 @@
       <c r="D17" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="10" t="s">
         <v>133</v>
       </c>
@@ -6210,7 +6287,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="L17" s="56"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="10">
@@ -6225,7 +6302,7 @@
       <c r="D18" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="10" t="s">
         <v>133</v>
       </c>
@@ -6236,7 +6313,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="L18" s="56"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="10">
@@ -6251,7 +6328,7 @@
       <c r="D19" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="10" t="s">
         <v>133</v>
       </c>
@@ -6262,7 +6339,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="56"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="10">
@@ -6277,14 +6354,14 @@
       <c r="D20" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="L20" s="56"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="10">
@@ -6299,14 +6376,14 @@
       <c r="D21" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="10">
@@ -6321,14 +6398,14 @@
       <c r="D22" s="56" t="s">
         <v>422</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="L22" s="56"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="10">
@@ -6343,7 +6420,7 @@
       <c r="D23" s="56" t="s">
         <v>1427</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="10" t="s">
         <v>1428</v>
       </c>
@@ -6354,7 +6431,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="L23" s="56"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="10">
@@ -6369,14 +6446,14 @@
       <c r="D24" s="56" t="s">
         <v>423</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="L24" s="56"/>
     </row>
     <row r="25" spans="1:12" ht="33">
       <c r="A25" s="10">
@@ -6391,7 +6468,9 @@
       <c r="D25" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="9" t="s">
+        <v>1445</v>
+      </c>
       <c r="F25" s="10" t="s">
         <v>142</v>
       </c>
@@ -6401,10 +6480,14 @@
       <c r="H25" s="56" t="s">
         <v>1430</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="I25" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="L25" s="56"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="10">
@@ -6419,7 +6502,7 @@
       <c r="D26" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="10" t="s">
         <v>142</v>
       </c>
@@ -6432,7 +6515,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="L26" s="56"/>
     </row>
     <row r="27" spans="1:12" ht="33">
       <c r="A27" s="10">
@@ -6447,7 +6530,7 @@
       <c r="D27" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="10" t="s">
         <v>142</v>
       </c>
@@ -6460,7 +6543,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="L27" s="56"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="10">
@@ -6475,7 +6558,7 @@
       <c r="D28" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="10" t="s">
         <v>142</v>
       </c>
@@ -6488,7 +6571,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="L28" s="56"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="10">
@@ -6503,7 +6586,7 @@
       <c r="D29" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="10" t="s">
         <v>142</v>
       </c>
@@ -6516,7 +6599,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="L29" s="56"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="10">
@@ -6531,7 +6614,7 @@
       <c r="D30" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="10" t="s">
         <v>142</v>
       </c>
@@ -6544,7 +6627,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="56"/>
     </row>
     <row r="31" spans="1:12" ht="33">
       <c r="A31" s="10">
@@ -6559,7 +6642,7 @@
       <c r="D31" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="10" t="s">
         <v>142</v>
       </c>
@@ -6572,7 +6655,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="56"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="10">
@@ -6587,7 +6670,7 @@
       <c r="D32" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="10"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="10" t="s">
         <v>142</v>
       </c>
@@ -6600,7 +6683,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
+      <c r="L32" s="56"/>
     </row>
     <row r="33" spans="1:12" ht="33">
       <c r="A33" s="10">
@@ -6615,7 +6698,7 @@
       <c r="D33" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="10"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="10" t="s">
         <v>142</v>
       </c>
@@ -6628,7 +6711,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
+      <c r="L33" s="56"/>
     </row>
     <row r="34" spans="1:12" ht="33">
       <c r="A34" s="10">
@@ -6643,7 +6726,7 @@
       <c r="D34" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="10"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
         <v>142</v>
       </c>
@@ -6656,7 +6739,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
+      <c r="L34" s="56"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="10">
@@ -6671,7 +6754,7 @@
       <c r="D35" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="10" t="s">
         <v>142</v>
       </c>
@@ -6684,7 +6767,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
+      <c r="L35" s="56"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="10">
@@ -6699,7 +6782,7 @@
       <c r="D36" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="10"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="10" t="s">
         <v>142</v>
       </c>
@@ -6712,7 +6795,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="L36" s="56"/>
     </row>
     <row r="37" spans="1:12" ht="33">
       <c r="A37" s="10">
@@ -6727,7 +6810,7 @@
       <c r="D37" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="10"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="10" t="s">
         <v>142</v>
       </c>
@@ -6740,7 +6823,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
+      <c r="L37" s="56"/>
     </row>
     <row r="38" spans="1:12" ht="33">
       <c r="A38" s="10">
@@ -6755,7 +6838,7 @@
       <c r="D38" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="10"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="10" t="s">
         <v>142</v>
       </c>
@@ -6768,7 +6851,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
+      <c r="L38" s="56"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="10">
@@ -6783,7 +6866,7 @@
       <c r="D39" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="10" t="s">
         <v>142</v>
       </c>
@@ -6796,7 +6879,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
+      <c r="L39" s="56"/>
     </row>
     <row r="40" spans="1:12" ht="33">
       <c r="A40" s="10">
@@ -6811,7 +6894,7 @@
       <c r="D40" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="10"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="10" t="s">
         <v>142</v>
       </c>
@@ -6824,7 +6907,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
+      <c r="L40" s="56"/>
     </row>
     <row r="41" spans="1:12" ht="33">
       <c r="A41" s="10">
@@ -6839,7 +6922,7 @@
       <c r="D41" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="10"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="10" t="s">
         <v>142</v>
       </c>
@@ -6852,7 +6935,7 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
+      <c r="L41" s="56"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="10">
@@ -6867,7 +6950,7 @@
       <c r="D42" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="10"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="10" t="s">
         <v>142</v>
       </c>
@@ -6880,7 +6963,7 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
+      <c r="L42" s="56"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="10">
@@ -6895,7 +6978,7 @@
       <c r="D43" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="10"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="10" t="s">
         <v>142</v>
       </c>
@@ -6908,7 +6991,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
+      <c r="L43" s="56"/>
     </row>
     <row r="44" spans="1:12" ht="33">
       <c r="A44" s="10">
@@ -6923,7 +7006,7 @@
       <c r="D44" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="10"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10" t="s">
@@ -6932,7 +7015,7 @@
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
+      <c r="L44" s="56"/>
     </row>
     <row r="45" spans="1:12" ht="33">
       <c r="A45" s="10">
@@ -6947,7 +7030,7 @@
       <c r="D45" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="10"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10" t="s">
@@ -6956,7 +7039,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
+      <c r="L45" s="56"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="10">
@@ -6971,7 +7054,7 @@
       <c r="D46" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="10"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="10" t="s">
         <v>142</v>
       </c>
@@ -6984,7 +7067,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
+      <c r="L46" s="56"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="10">
@@ -6999,7 +7082,7 @@
       <c r="D47" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="10"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="10" t="s">
         <v>142</v>
       </c>
@@ -7012,7 +7095,7 @@
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
+      <c r="L47" s="56"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="10">
@@ -7027,7 +7110,7 @@
       <c r="D48" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10" t="s">
@@ -7036,7 +7119,7 @@
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
+      <c r="L48" s="56"/>
     </row>
     <row r="49" spans="1:12" ht="33">
       <c r="A49" s="10">
@@ -7051,7 +7134,7 @@
       <c r="D49" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="E49" s="10"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="10" t="s">
         <v>142</v>
       </c>
@@ -7064,7 +7147,7 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
+      <c r="L49" s="56"/>
     </row>
     <row r="50" spans="1:12" ht="33">
       <c r="A50" s="10">
@@ -7079,7 +7162,7 @@
       <c r="D50" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="10"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="10" t="s">
         <v>142</v>
       </c>
@@ -7092,7 +7175,7 @@
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
+      <c r="L50" s="56"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="10">
@@ -7107,7 +7190,7 @@
       <c r="D51" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="10"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="10" t="s">
         <v>142</v>
       </c>
@@ -7120,7 +7203,7 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
+      <c r="L51" s="56"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="10">
@@ -7135,7 +7218,7 @@
       <c r="D52" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="10"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="10" t="s">
         <v>142</v>
       </c>
@@ -7148,7 +7231,7 @@
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
+      <c r="L52" s="56"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="10">
@@ -7163,7 +7246,7 @@
       <c r="D53" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="10"/>
+      <c r="E53" s="9"/>
       <c r="F53" s="10" t="s">
         <v>142</v>
       </c>
@@ -7176,7 +7259,7 @@
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
+      <c r="L53" s="56"/>
     </row>
     <row r="54" spans="1:12" ht="33">
       <c r="A54" s="10">
@@ -7191,7 +7274,7 @@
       <c r="D54" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="10"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="10" t="s">
         <v>142</v>
       </c>
@@ -7204,7 +7287,7 @@
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
+      <c r="L54" s="56"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="10">
@@ -7219,14 +7302,14 @@
       <c r="D55" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="10"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
+      <c r="L55" s="56"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="10">
@@ -7241,7 +7324,7 @@
       <c r="D56" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="E56" s="10"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="10" t="s">
         <v>142</v>
       </c>
@@ -7254,7 +7337,7 @@
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
+      <c r="L56" s="56"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="10">
@@ -7269,7 +7352,7 @@
       <c r="D57" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="10"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="10" t="s">
         <v>142</v>
       </c>
@@ -7282,7 +7365,7 @@
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
+      <c r="L57" s="56"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="10">
@@ -7297,7 +7380,7 @@
       <c r="D58" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="10"/>
+      <c r="E58" s="9"/>
       <c r="F58" s="10" t="s">
         <v>142</v>
       </c>
@@ -7310,7 +7393,7 @@
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
+      <c r="L58" s="56"/>
     </row>
     <row r="59" spans="1:12" ht="33">
       <c r="A59" s="10">
@@ -7325,7 +7408,7 @@
       <c r="D59" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="10"/>
+      <c r="E59" s="9"/>
       <c r="F59" s="10" t="s">
         <v>142</v>
       </c>
@@ -7338,7 +7421,7 @@
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
+      <c r="L59" s="56"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="10">
@@ -7353,7 +7436,7 @@
       <c r="D60" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="10"/>
+      <c r="E60" s="9"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10" t="s">
@@ -7362,7 +7445,7 @@
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
+      <c r="L60" s="56"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="10">
@@ -7377,14 +7460,14 @@
       <c r="D61" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="10"/>
+      <c r="E61" s="9"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
+      <c r="L61" s="56"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="10">
@@ -7399,14 +7482,14 @@
       <c r="D62" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="10"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
+      <c r="L62" s="56"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="10">
@@ -7421,14 +7504,14 @@
       <c r="D63" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="10"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
+      <c r="L63" s="56"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="10">
@@ -7443,14 +7526,14 @@
       <c r="D64" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="E64" s="10"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
+      <c r="L64" s="56"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="10">
@@ -7465,7 +7548,7 @@
       <c r="D65" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="10"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="10" t="s">
         <v>142</v>
       </c>
@@ -7478,7 +7561,7 @@
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
+      <c r="L65" s="56"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="10">
@@ -7493,7 +7576,7 @@
       <c r="D66" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="10"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="10" t="s">
         <v>142</v>
       </c>
@@ -7506,7 +7589,7 @@
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
+      <c r="L66" s="56"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="10">
@@ -7521,7 +7604,7 @@
       <c r="D67" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="E67" s="10"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="10" t="s">
         <v>142</v>
       </c>
@@ -7534,9 +7617,9 @@
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="L67" s="56"/>
+    </row>
+    <row r="68" spans="1:12" ht="49.5">
       <c r="A68" s="10">
         <v>67</v>
       </c>
@@ -7549,14 +7632,16 @@
       <c r="D68" s="56" t="s">
         <v>408</v>
       </c>
-      <c r="E68" s="10"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
+      <c r="L68" s="56" t="s">
+        <v>1450</v>
+      </c>
     </row>
     <row r="69" spans="1:12" ht="49.5">
       <c r="A69" s="10">
@@ -7571,16 +7656,18 @@
       <c r="D69" s="56" t="s">
         <v>415</v>
       </c>
-      <c r="E69" s="10"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="L69" s="56" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="363">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -7593,7 +7680,9 @@
       <c r="D70" s="56" t="s">
         <v>409</v>
       </c>
-      <c r="E70" s="10"/>
+      <c r="E70" s="9" t="s">
+        <v>1445</v>
+      </c>
       <c r="F70" s="10" t="s">
         <v>412</v>
       </c>
@@ -7602,7 +7691,9 @@
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
+      <c r="L70" s="65" t="s">
+        <v>1452</v>
+      </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="10">
@@ -7617,14 +7708,14 @@
       <c r="D71" s="56" t="s">
         <v>410</v>
       </c>
-      <c r="E71" s="10"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
+      <c r="L71" s="1"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="10">
@@ -7639,7 +7730,7 @@
       <c r="D72" s="56" t="s">
         <v>411</v>
       </c>
-      <c r="E72" s="10"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="10" t="s">
         <v>412</v>
       </c>
@@ -7650,7 +7741,7 @@
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
+      <c r="L72" s="56"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="10">
@@ -7665,7 +7756,9 @@
       <c r="D73" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="E73" s="10"/>
+      <c r="E73" s="9" t="s">
+        <v>1445</v>
+      </c>
       <c r="F73" s="10" t="s">
         <v>146</v>
       </c>
@@ -7673,10 +7766,16 @@
         <v>145</v>
       </c>
       <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
+      <c r="I73" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K73" s="54" t="s">
+        <v>886</v>
+      </c>
+      <c r="L73" s="56"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="10">
@@ -7691,7 +7790,7 @@
       <c r="D74" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="E74" s="10"/>
+      <c r="E74" s="9"/>
       <c r="F74" s="10" t="s">
         <v>146</v>
       </c>
@@ -7702,7 +7801,7 @@
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
+      <c r="L74" s="56"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="10">
@@ -7717,7 +7816,7 @@
       <c r="D75" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="E75" s="10"/>
+      <c r="E75" s="9"/>
       <c r="F75" s="10" t="s">
         <v>146</v>
       </c>
@@ -7728,7 +7827,7 @@
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
+      <c r="L75" s="56"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="10">
@@ -7743,7 +7842,7 @@
       <c r="D76" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="10"/>
+      <c r="E76" s="9"/>
       <c r="F76" s="10" t="s">
         <v>146</v>
       </c>
@@ -7754,7 +7853,7 @@
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
+      <c r="L76" s="56"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="10">
@@ -7769,7 +7868,7 @@
       <c r="D77" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E77" s="10"/>
+      <c r="E77" s="9"/>
       <c r="F77" s="10" t="s">
         <v>146</v>
       </c>
@@ -7780,7 +7879,7 @@
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
+      <c r="L77" s="56"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="10">
@@ -7795,7 +7894,7 @@
       <c r="D78" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="E78" s="10"/>
+      <c r="E78" s="9"/>
       <c r="F78" s="10" t="s">
         <v>146</v>
       </c>
@@ -7806,7 +7905,7 @@
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
+      <c r="L78" s="56"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="10">
@@ -7821,7 +7920,7 @@
       <c r="D79" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="E79" s="10"/>
+      <c r="E79" s="9"/>
       <c r="F79" s="10" t="s">
         <v>146</v>
       </c>
@@ -7832,7 +7931,7 @@
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
+      <c r="L79" s="56"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="10">
@@ -7847,7 +7946,7 @@
       <c r="D80" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="E80" s="10"/>
+      <c r="E80" s="9"/>
       <c r="F80" s="10" t="s">
         <v>146</v>
       </c>
@@ -7858,7 +7957,7 @@
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
+      <c r="L80" s="56"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="10">
@@ -7873,7 +7972,7 @@
       <c r="D81" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="E81" s="10"/>
+      <c r="E81" s="9"/>
       <c r="F81" s="10" t="s">
         <v>146</v>
       </c>
@@ -7884,7 +7983,7 @@
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
+      <c r="L81" s="56"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="10">
@@ -7899,7 +7998,7 @@
       <c r="D82" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="10"/>
+      <c r="E82" s="9"/>
       <c r="F82" s="10" t="s">
         <v>146</v>
       </c>
@@ -7910,7 +8009,7 @@
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
+      <c r="L82" s="56"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="10">
@@ -7925,7 +8024,7 @@
       <c r="D83" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="E83" s="10"/>
+      <c r="E83" s="9"/>
       <c r="F83" s="10" t="s">
         <v>146</v>
       </c>
@@ -7936,7 +8035,7 @@
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
+      <c r="L83" s="56"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="10">
@@ -7951,7 +8050,7 @@
       <c r="D84" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="E84" s="10"/>
+      <c r="E84" s="9"/>
       <c r="F84" s="10" t="s">
         <v>146</v>
       </c>
@@ -7962,7 +8061,7 @@
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
+      <c r="L84" s="56"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="10">
@@ -7977,7 +8076,7 @@
       <c r="D85" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E85" s="10"/>
+      <c r="E85" s="9"/>
       <c r="F85" s="10" t="s">
         <v>146</v>
       </c>
@@ -7988,7 +8087,7 @@
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
+      <c r="L85" s="56"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="10">
@@ -8003,7 +8102,7 @@
       <c r="D86" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="E86" s="10"/>
+      <c r="E86" s="9"/>
       <c r="F86" s="10" t="s">
         <v>146</v>
       </c>
@@ -8014,7 +8113,7 @@
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
+      <c r="L86" s="56"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="10">
@@ -8029,7 +8128,7 @@
       <c r="D87" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="E87" s="10"/>
+      <c r="E87" s="9"/>
       <c r="F87" s="10" t="s">
         <v>146</v>
       </c>
@@ -8040,7 +8139,7 @@
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
+      <c r="L87" s="56"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="10">
@@ -8055,7 +8154,7 @@
       <c r="D88" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="E88" s="10"/>
+      <c r="E88" s="9"/>
       <c r="F88" s="10" t="s">
         <v>146</v>
       </c>
@@ -8066,7 +8165,7 @@
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
+      <c r="L88" s="56"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="10">
@@ -8081,7 +8180,7 @@
       <c r="D89" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="10"/>
+      <c r="E89" s="9"/>
       <c r="F89" s="10" t="s">
         <v>146</v>
       </c>
@@ -8092,7 +8191,7 @@
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
+      <c r="L89" s="56"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="10">
@@ -8107,7 +8206,7 @@
       <c r="D90" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="E90" s="10"/>
+      <c r="E90" s="9"/>
       <c r="F90" s="10" t="s">
         <v>146</v>
       </c>
@@ -8118,7 +8217,7 @@
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
+      <c r="L90" s="56"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="10">
@@ -8133,7 +8232,7 @@
       <c r="D91" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="E91" s="10"/>
+      <c r="E91" s="9"/>
       <c r="F91" s="10" t="s">
         <v>146</v>
       </c>
@@ -8144,7 +8243,7 @@
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
+      <c r="L91" s="56"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="10">
@@ -8159,7 +8258,7 @@
       <c r="D92" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="E92" s="10"/>
+      <c r="E92" s="9"/>
       <c r="F92" s="10" t="s">
         <v>146</v>
       </c>
@@ -8170,7 +8269,7 @@
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
+      <c r="L92" s="56"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="10">
@@ -8185,7 +8284,7 @@
       <c r="D93" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="E93" s="10"/>
+      <c r="E93" s="9"/>
       <c r="F93" s="10" t="s">
         <v>146</v>
       </c>
@@ -8196,7 +8295,7 @@
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
+      <c r="L93" s="56"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="10">
@@ -8211,7 +8310,7 @@
       <c r="D94" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="E94" s="10"/>
+      <c r="E94" s="9"/>
       <c r="F94" s="10" t="s">
         <v>146</v>
       </c>
@@ -8222,7 +8321,7 @@
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
+      <c r="L94" s="56"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="10">
@@ -8237,7 +8336,7 @@
       <c r="D95" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="E95" s="10"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="10" t="s">
         <v>146</v>
       </c>
@@ -8248,7 +8347,7 @@
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
+      <c r="L95" s="56"/>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="10">
@@ -8263,7 +8362,7 @@
       <c r="D96" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="E96" s="10"/>
+      <c r="E96" s="9"/>
       <c r="F96" s="10" t="s">
         <v>146</v>
       </c>
@@ -8274,7 +8373,7 @@
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
+      <c r="L96" s="56"/>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="10">
@@ -8289,7 +8388,7 @@
       <c r="D97" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="E97" s="10"/>
+      <c r="E97" s="9"/>
       <c r="F97" s="10" t="s">
         <v>146</v>
       </c>
@@ -8300,7 +8399,7 @@
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
+      <c r="L97" s="56"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="10">
@@ -8315,7 +8414,7 @@
       <c r="D98" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="E98" s="10"/>
+      <c r="E98" s="9"/>
       <c r="F98" s="10" t="s">
         <v>146</v>
       </c>
@@ -8326,7 +8425,7 @@
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
+      <c r="L98" s="56"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="10">
@@ -8341,7 +8440,7 @@
       <c r="D99" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="E99" s="10"/>
+      <c r="E99" s="9"/>
       <c r="F99" s="10" t="s">
         <v>146</v>
       </c>
@@ -8352,7 +8451,7 @@
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
+      <c r="L99" s="56"/>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="10">
@@ -8367,7 +8466,7 @@
       <c r="D100" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E100" s="10"/>
+      <c r="E100" s="9"/>
       <c r="F100" s="10" t="s">
         <v>146</v>
       </c>
@@ -8378,7 +8477,7 @@
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
+      <c r="L100" s="56"/>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="10">
@@ -8393,18 +8492,24 @@
       <c r="D101" s="56" t="s">
         <v>416</v>
       </c>
-      <c r="E101" s="10"/>
+      <c r="E101" s="9" t="s">
+        <v>1445</v>
+      </c>
       <c r="F101" s="10" t="s">
         <v>427</v>
       </c>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
+      <c r="I101" s="10" t="s">
+        <v>427</v>
+      </c>
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="L101" s="56" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="99">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -8417,14 +8522,16 @@
       <c r="D102" s="56" t="s">
         <v>407</v>
       </c>
-      <c r="E102" s="10"/>
+      <c r="E102" s="9"/>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
+      <c r="L102" s="56" t="s">
+        <v>1455</v>
+      </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="10">
@@ -8439,14 +8546,14 @@
       <c r="D103" s="56" t="s">
         <v>403</v>
       </c>
-      <c r="E103" s="10"/>
+      <c r="E103" s="9"/>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
+      <c r="L103" s="56"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="10">
@@ -8461,14 +8568,14 @@
       <c r="D104" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="E104" s="10"/>
+      <c r="E104" s="9"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
+      <c r="L104" s="56"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="10">
@@ -8483,14 +8590,14 @@
       <c r="D105" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="E105" s="10"/>
+      <c r="E105" s="9"/>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
-      <c r="L105" s="10"/>
+      <c r="L105" s="56"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="10">
@@ -8505,14 +8612,14 @@
       <c r="D106" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="E106" s="10"/>
+      <c r="E106" s="9"/>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
-      <c r="L106" s="10"/>
+      <c r="L106" s="56"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="10">
@@ -8527,14 +8634,14 @@
       <c r="D107" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="E107" s="10"/>
+      <c r="E107" s="9"/>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
+      <c r="L107" s="56"/>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="10">
@@ -8549,7 +8656,7 @@
       <c r="D108" s="56" t="s">
         <v>417</v>
       </c>
-      <c r="E108" s="10"/>
+      <c r="E108" s="9"/>
       <c r="F108" s="10" t="s">
         <v>420</v>
       </c>
@@ -8558,7 +8665,7 @@
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
-      <c r="L108" s="10"/>
+      <c r="L108" s="56"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="10">
@@ -8573,7 +8680,7 @@
       <c r="D109" s="56" t="s">
         <v>418</v>
       </c>
-      <c r="E109" s="10"/>
+      <c r="E109" s="9"/>
       <c r="F109" s="10" t="s">
         <v>419</v>
       </c>
@@ -8582,7 +8689,7 @@
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
+      <c r="L109" s="56"/>
     </row>
     <row r="110" spans="1:12" ht="33">
       <c r="A110" s="10">
@@ -8597,17 +8704,20 @@
       <c r="D110" s="56" t="s">
         <v>1425</v>
       </c>
-      <c r="E110" s="10"/>
+      <c r="E110" s="9"/>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
+      <c r="L110" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="K73">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12275,22 +12385,22 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B17:B28">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34 C17:C27">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E32 E34:E37 E17:E25">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:I23 I17:I19">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:J26 J17:J19">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K25">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16207,10 +16317,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:G24">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G72">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18488,7 +18598,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C81">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
